--- a/Trabajos Prácticos/TP_12/Recursos/DeliverEat_Template_Caso_De_Prueba_Defectos.xlsx
+++ b/Trabajos Prácticos/TP_12/Recursos/DeliverEat_Template_Caso_De_Prueba_Defectos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gonza\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gonza\Documents\2022\ISW\Repositorio\Repositorio_Grupo2_ISW\Trabajos Prácticos\TP_12\Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F87692B-8B64-4E6A-B1F1-9177856584D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1A4852-03AB-4575-BAA7-5D058B1AE59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="-120" windowWidth="28320" windowHeight="16440" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="147">
   <si>
     <t>TC_001</t>
   </si>
@@ -329,9 +329,6 @@
     <t>Fecha de vencimiento</t>
   </si>
   <si>
-    <t>CVC</t>
-  </si>
-  <si>
     <t>Modo de recepción</t>
   </si>
   <si>
@@ -429,6 +426,64 @@
   </si>
   <si>
     <t>No selecciona cuando la direccion se indica de forma textual</t>
+  </si>
+  <si>
+    <t>Selecciona entre: "Efectivo" o "Tarjeta VISA"</t>
+  </si>
+  <si>
+    <t>No selecciona ninguna opcion</t>
+  </si>
+  <si>
+    <t>Número de 16 dígitos correspondiente a una tarjeta habilitada y  que corresponda a VISA</t>
+  </si>
+  <si>
+    <t>Número con más de 16 dígitos</t>
+  </si>
+  <si>
+    <t>Número con menos de 16 dígitos</t>
+  </si>
+  <si>
+    <t>Otro valor</t>
+  </si>
+  <si>
+    <t>Número de 16 dígitos no correspondiente a una tarjeta de crédito VISA (validación)</t>
+  </si>
+  <si>
+    <t>Cadena de texto correspondiente al nombre y apellido del titular de la tarjeta</t>
+  </si>
+  <si>
+    <t>Fecha en formato MM/AAAA igual o posterior a la fecha actual</t>
+  </si>
+  <si>
+    <t>Fecha con otro formato</t>
+  </si>
+  <si>
+    <t>Fecha de vencimiento en el pasado</t>
+  </si>
+  <si>
+    <t>Número de 3 dígitos (###)</t>
+  </si>
+  <si>
+    <t>CVV</t>
+  </si>
+  <si>
+    <t>Número con formato distinto a 3 dígitos</t>
+  </si>
+  <si>
+    <t>Selecciona entre: “Lo antes posible” o una fecha/hora de recepción</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha y hora en formato HH:mm DD/MM/AAAA igual o posterior a la fecha
+actual y no mayor a 7 dias </t>
+  </si>
+  <si>
+    <t>Fecha y hora con otro formato</t>
+  </si>
+  <si>
+    <t>Fecha y hora en el pasado</t>
+  </si>
+  <si>
+    <t>Fecha y hora mayor a 7 dias despues de la fecha actual</t>
   </si>
 </sst>
 </file>
@@ -841,7 +896,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -952,6 +1007,12 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -973,11 +1034,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1767,17 +1825,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD9840-36E0-4F21-9FAD-A2DDF0698138}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
-    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="3" max="3" width="74.85546875" customWidth="1"/>
+    <col min="5" max="5" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1785,7 +1843,7 @@
         <v>86</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C1" s="47"/>
       <c r="D1" s="47" t="s">
@@ -1794,106 +1852,106 @@
       <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
-        <v>98</v>
+      <c r="A2" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
       <c r="E3" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="48" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="45"/>
       <c r="E4" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="56"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="45"/>
       <c r="C5" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="45"/>
       <c r="C6" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D6" s="45"/>
       <c r="E6" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="45"/>
       <c r="B7" s="45"/>
       <c r="C7" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="45"/>
       <c r="C8" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="45"/>
       <c r="E8" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="45"/>
       <c r="C9" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="45"/>
       <c r="C10" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="45"/>
       <c r="E10" s="45"/>
@@ -1902,44 +1960,44 @@
       <c r="A11" s="45"/>
       <c r="B11" s="45"/>
       <c r="C11" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="45"/>
       <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="45"/>
       <c r="C12" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="45"/>
       <c r="B13" s="45"/>
       <c r="C13" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B14" s="45"/>
       <c r="C14" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1948,20 +2006,20 @@
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="45"/>
       <c r="E16" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -1970,16 +2028,16 @@
       <c r="C17" s="45"/>
       <c r="D17" s="45"/>
       <c r="E17" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B18" s="45"/>
       <c r="C18" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="45"/>
       <c r="E18" s="45"/>
@@ -1988,22 +2046,22 @@
       <c r="A19" s="45"/>
       <c r="B19" s="45"/>
       <c r="C19" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="45"/>
       <c r="C20" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2012,22 +2070,22 @@
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" s="45"/>
       <c r="E21" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="45"/>
       <c r="B22" s="45"/>
       <c r="C22" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="45"/>
       <c r="E22" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2035,186 +2093,252 @@
         <v>90</v>
       </c>
       <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
+      <c r="C23" s="45" t="s">
+        <v>128</v>
+      </c>
       <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="E23" s="45" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
+      <c r="A24" s="45" t="s">
+        <v>106</v>
+      </c>
       <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
+      <c r="C24" s="45" t="s">
+        <v>116</v>
+      </c>
       <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
+      <c r="E24" s="45" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="45" t="s">
-        <v>107</v>
-      </c>
+      <c r="A25" s="45"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="E25" s="45" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
         <v>91</v>
       </c>
       <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
+      <c r="C26" s="45" t="s">
+        <v>116</v>
+      </c>
       <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
+      <c r="E26" s="45" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="45" t="s">
-        <v>92</v>
-      </c>
+      <c r="A27" s="45"/>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
+      <c r="E27" s="45" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
       <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
+      <c r="E28" s="45" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
-        <v>94</v>
-      </c>
+      <c r="A29" s="45"/>
       <c r="B29" s="45"/>
       <c r="C29" s="45"/>
       <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
+      <c r="E29" s="45" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
-        <v>95</v>
-      </c>
+      <c r="A30" s="45"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
       <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
+      <c r="E30" s="45" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="45" t="s">
-        <v>96</v>
-      </c>
+      <c r="A31" s="45"/>
       <c r="B31" s="45"/>
       <c r="C31" s="45"/>
       <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
+      <c r="E31" s="45" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
-        <v>97</v>
-      </c>
+      <c r="A32" s="45"/>
       <c r="B32" s="45"/>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
+      <c r="E32" s="45" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="45"/>
+      <c r="A33" s="45" t="s">
+        <v>93</v>
+      </c>
       <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
+      <c r="C33" s="45" t="s">
+        <v>135</v>
+      </c>
       <c r="D33" s="45"/>
-      <c r="E33" s="45"/>
+      <c r="E33" s="45" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="45"/>
+      <c r="A34" s="45" t="s">
+        <v>94</v>
+      </c>
       <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
+      <c r="C34" s="45" t="s">
+        <v>136</v>
+      </c>
       <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
+      <c r="E34" s="45" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="45"/>
       <c r="B35" s="45"/>
       <c r="C35" s="45"/>
       <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
+      <c r="E35" s="45" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="45"/>
       <c r="B36" s="45"/>
       <c r="C36" s="45"/>
       <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
+      <c r="E36" s="45" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="45"/>
       <c r="B37" s="45"/>
       <c r="C37" s="45"/>
       <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
+      <c r="E37" s="45" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="45"/>
+      <c r="A38" s="45" t="s">
+        <v>140</v>
+      </c>
       <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
+      <c r="C38" s="45" t="s">
+        <v>139</v>
+      </c>
       <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
+      <c r="E38" s="45" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="45"/>
       <c r="B39" s="45"/>
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
+      <c r="E39" s="45" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="45"/>
       <c r="B40" s="45"/>
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
+      <c r="E40" s="45" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
+      <c r="A41" s="45" t="s">
+        <v>95</v>
+      </c>
       <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="C41" s="45" t="s">
+        <v>142</v>
+      </c>
       <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="45"/>
+      <c r="E41" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="45" t="s">
+        <v>96</v>
+      </c>
       <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
+      <c r="C42" s="57" t="s">
+        <v>143</v>
+      </c>
       <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
+      <c r="E42" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="45"/>
       <c r="B43" s="45"/>
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
+      <c r="E43" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="45"/>
       <c r="B44" s="45"/>
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
-      <c r="E44" s="45"/>
+      <c r="E44" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="45"/>
       <c r="B45" s="45"/>
       <c r="C45" s="45"/>
       <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
+      <c r="E45" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="45"/>
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
       <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
+      <c r="E46" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="45"/>
@@ -2243,6 +2367,76 @@
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="45"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="45"/>
+      <c r="B58" s="45"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="45"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2327,14 +2521,14 @@
       <c r="AE1" s="4"/>
     </row>
     <row r="2" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -2362,12 +2556,12 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -2395,12 +2589,12 @@
       <c r="AE3" s="4"/>
     </row>
     <row r="4" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -2428,14 +2622,14 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="50"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
@@ -2489,34 +2683,34 @@
     </row>
     <row r="7" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="49" t="s">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49" t="s">
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49" t="s">
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
     </row>
     <row r="9" spans="1:45" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -5085,23 +5279,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9EE5A02A2A6DC45B45E782DFEFDA45E" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7657f0a98c495c38e0a3edb0de0bfed3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c79c8594d4fa4c9fd200c91a62336472" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
@@ -5227,27 +5404,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA349A94-BB86-4E02-9DFC-BCF7626CFB19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1910A495-F8F1-4320-96F7-0EE9F01D3CE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5264,4 +5438,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA349A94-BB86-4E02-9DFC-BCF7626CFB19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Trabajos Prácticos/TP_12/Recursos/DeliverEat_Template_Caso_De_Prueba_Defectos.xlsx
+++ b/Trabajos Prácticos/TP_12/Recursos/DeliverEat_Template_Caso_De_Prueba_Defectos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gonza\Documents\2022\ISW\Repositorio\Repositorio_Grupo2_ISW\Trabajos Prácticos\TP_12\Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1A4852-03AB-4575-BAA7-5D058B1AE59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC50BEA7-2F1B-4674-AA43-BCE9122B33A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="-120" windowWidth="28320" windowHeight="16440" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="182">
   <si>
     <t>TC_001</t>
   </si>
@@ -348,18 +348,6 @@
   </si>
   <si>
     <t>Ciudad Negocio</t>
-  </si>
-  <si>
-    <t>Calle Destino</t>
-  </si>
-  <si>
-    <t>Número Destino</t>
-  </si>
-  <si>
-    <t>Referencia Destino</t>
-  </si>
-  <si>
-    <t>Ciudad Destino</t>
   </si>
   <si>
     <t>Precio de producto</t>
@@ -484,6 +472,123 @@
   </si>
   <si>
     <t>Fecha y hora mayor a 7 dias despues de la fecha actual</t>
+  </si>
+  <si>
+    <t>CLASES DE EQUIVALENCIA DE ENTRADA</t>
+  </si>
+  <si>
+    <t>CLASES DE EQUIVALENCIA DE SALIDA</t>
+  </si>
+  <si>
+    <t>Pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensaje informando la confirmación del pedido con la fecha y hora aproximada de entrega, direccion de entrega, descripcion del pedido y metodo de pago </t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que debe ingresar un domicilio de entrega</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que no es un número de tarjeta VISA válido</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que debe ingresar el número de tarjeta de crédito</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que debe ingresar el nombre del titular</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que debe ingresar la fecha de vencimiento de la tarjeta</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que la tarjeta se encuentra vencida</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el formato de fecha de vencimiento no es correcto</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que debe ingresar una descripcion de pedido</t>
+  </si>
+  <si>
+    <t>Calle Entrega</t>
+  </si>
+  <si>
+    <t>Número Entrega</t>
+  </si>
+  <si>
+    <t>Referencia Entrega</t>
+  </si>
+  <si>
+    <t>Ciudad Entrega</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que debe ingresar el código de verificación</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que debe ingresar un domicilio del negocio</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el formato del domicilio de entrega no es correcto</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el formato del domicilio del negocio no es correcto</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el formato de la descripcion de pedido no es correcto</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el formato de la foto no es correcto</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que se superó el tamano admitido para la foto</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que seleccionó un punto en el mapa fuera de las ciudades registradas</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que no se seleccionó un punto en el mapa</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que no se seleccionó ninguna forma de pago</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el formato del precio del producto no es correcto</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que no ingresó un precio de producto</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el formato del monto a pagar no es correcto</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que no ingresó un monto a pagar</t>
+  </si>
+  <si>
+    <t>Numero entero no negativo superior al costo del servicio</t>
+  </si>
+  <si>
+    <t>Monto inferior al costo del servicio</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el monto a pagar es insuficiente</t>
+  </si>
+  <si>
+    <t>Cadena de caracteres alfabéticos</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que no se seleccionó ningun modo de recepcion</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que no ingresó una fecha y hora de entrega</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que el formato de la fecha y hora de entrega no es correcto</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que la fecha y hora de entrega es anterior a la fecha y hora actual</t>
+  </si>
+  <si>
+    <t>Mensaje de error indicando que la fecha y hora de entrega es posterior a 7 dias desde la fecha y hora actual</t>
   </si>
 </sst>
 </file>
@@ -493,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -597,8 +702,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Merriweather"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Merriweather"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,12 +780,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF833C0B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -854,7 +997,346 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -870,13 +1352,64 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -896,7 +1429,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1002,17 +1535,6 @@
     <xf numFmtId="14" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1034,8 +1556,181 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1462,6 +2157,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF833C0B"/>
       <color rgb="FFCC0099"/>
       <color rgb="FFFF00FF"/>
     </mruColors>
@@ -1825,625 +2521,829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD9840-36E0-4F21-9FAD-A2DDF0698138}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="74.85546875" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="100.7109375" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" customWidth="1"/>
+    <col min="5" max="5" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="67" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="71"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="85" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="88"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="86"/>
+      <c r="E6" s="85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="71"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="86"/>
+      <c r="E8" s="85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="88"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="86"/>
+      <c r="E10" s="85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="69"/>
+      <c r="C11" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="67"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="71"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45" t="s">
+      <c r="D12" s="86"/>
+      <c r="E12" s="85"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="69"/>
+      <c r="C13" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="52"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="88"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="86"/>
+      <c r="E14" s="85"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="70" t="s">
+        <v>155</v>
+      </c>
+      <c r="B15" s="69"/>
+      <c r="C15" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="69"/>
+      <c r="C17" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="67" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="88"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="68"/>
+      <c r="E19" s="67"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="86"/>
+      <c r="E20" s="85"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="76"/>
+      <c r="E21" s="75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="49"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45" t="s">
+      <c r="D22" s="93"/>
+      <c r="E22" s="92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="71"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="79"/>
+      <c r="E23" s="78" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="94"/>
+      <c r="C24" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="96"/>
+      <c r="E24" s="95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="70" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="69"/>
+      <c r="C25" s="67" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="49"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45" t="s">
+      <c r="D25" s="68"/>
+      <c r="E25" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="71"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="98" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45" t="s">
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="69"/>
+      <c r="C27" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="68"/>
+      <c r="E27" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45" t="s">
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="90"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="85" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45" t="s">
+    <row r="29" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="88"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="111" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="69"/>
+      <c r="C30" s="80" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="68"/>
+      <c r="E30" s="67" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="72"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="72"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="82" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="72"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="71"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="94"/>
+      <c r="C35" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="96"/>
+      <c r="E35" s="95" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="69"/>
+      <c r="C36" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="68"/>
+      <c r="E36" s="67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="72"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="72"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="82" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="71"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="85" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="87" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="69"/>
+      <c r="C40" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" s="68"/>
+      <c r="E40" s="67" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="90"/>
+      <c r="B41" s="100"/>
+      <c r="C41" s="101"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="88"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="94"/>
+      <c r="C43" s="95" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="96"/>
+      <c r="E43" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="69"/>
+      <c r="C44" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="68"/>
+      <c r="E44" s="67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="90"/>
+      <c r="B45" s="100"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="101" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45" t="s">
+    <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="90"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="82" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="90"/>
+      <c r="B47" s="100"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="102"/>
+      <c r="E47" s="101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="88"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="78" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B28" s="45"/>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="45"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="45"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="45"/>
-      <c r="E33" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="45"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="45"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="45"/>
-      <c r="C42" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="D42" s="45"/>
-      <c r="E42" t="s">
+    <row r="49" spans="1:5" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="45"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" t="s">
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="58"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="103" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="65" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="45"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="45"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="45"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="45"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="45"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="45"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="45"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="45"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="45"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="45"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="45"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="45"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="45"/>
-      <c r="B58" s="45"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="45"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="45"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="45"/>
-      <c r="B60" s="45"/>
-      <c r="C60" s="45"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="45"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="103"/>
+      <c r="B51" s="64"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="65" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="103"/>
+      <c r="B52" s="64"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="103"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="65" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="59"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="65" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="59"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="65" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="59"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="59"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="65" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="59"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="59"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="59"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="65" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="59"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="59"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="65" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="59"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="65" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="59"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="65" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="104"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="104"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="106" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="104"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="106" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="104"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="104"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="107"/>
+      <c r="E69" s="106" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="104"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="107"/>
+      <c r="E70" s="106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="104"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="106" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="104"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="107"/>
+      <c r="E72" s="106" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="104"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="107"/>
+      <c r="E73" s="106" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="104"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="107"/>
+      <c r="E74" s="106" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="104"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="107"/>
+      <c r="E75" s="106" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="104"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="107"/>
+      <c r="E76" s="106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="60"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="62" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="20">
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A27:A29"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2456,9 +3356,9 @@
   </sheetPr>
   <dimension ref="A1:AS73"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2521,14 +3421,14 @@
       <c r="AE1" s="4"/>
     </row>
     <row r="2" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -2556,12 +3456,12 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -2589,12 +3489,12 @@
       <c r="AE3" s="4"/>
     </row>
     <row r="4" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -2622,14 +3522,14 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="52"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="56"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
@@ -2683,34 +3583,34 @@
     </row>
     <row r="7" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="51" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51" t="s">
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51" t="s">
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
     </row>
     <row r="9" spans="1:45" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">

--- a/Trabajos Prácticos/TP_12/Recursos/DeliverEat_Template_Caso_De_Prueba_Defectos.xlsx
+++ b/Trabajos Prácticos/TP_12/Recursos/DeliverEat_Template_Caso_De_Prueba_Defectos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gonza\Documents\2022\ISW\Repositorio\Repositorio_Grupo2_ISW\Trabajos Prácticos\TP_12\Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC50BEA7-2F1B-4674-AA43-BCE9122B33A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2AF546-6389-47C3-8DC7-223C32422AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="-120" windowWidth="28320" windowHeight="16440" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,13 @@
     <definedName name="gr">#REF!</definedName>
     <definedName name="Ready_To_Run" localSheetId="1">#REF!</definedName>
     <definedName name="Ready_To_Run">#REF!</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Clases de Equivalencia'!$C$69</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -1429,7 +1436,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -1535,79 +1542,136 @@
     <xf numFmtId="14" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1617,120 +1681,59 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2523,8 +2526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD9840-36E0-4F21-9FAD-A2DDF0698138}">
   <dimension ref="A1:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2537,784 +2540,784 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="54" t="s">
+      <c r="C1" s="88"/>
+      <c r="D1" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="47" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="85" t="s">
+      <c r="A4" s="90"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="62" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="67" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="67" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="47" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="85" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="62" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="67" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="85" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="62" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="67" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="67" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85" t="s">
+      <c r="A10" s="86"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="85" t="s">
+      <c r="D10" s="63"/>
+      <c r="E10" s="62" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="89" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="67" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="67"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85" t="s">
+      <c r="A12" s="90"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="85"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="62"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="69"/>
-      <c r="C13" s="67" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="H13" s="52"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85" t="s">
+      <c r="A14" s="86"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="85"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="67" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="67" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="47" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="85" t="s">
+      <c r="A16" s="90"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="62" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="67" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="47" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="85" t="s">
+      <c r="A18" s="86"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="62" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="69"/>
-      <c r="C19" s="67" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="D19" s="68"/>
-      <c r="E19" s="67"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85" t="s">
+      <c r="A20" s="90"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="D20" s="86"/>
-      <c r="E20" s="85"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="62"/>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="75" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="75" t="s">
+      <c r="D21" s="53"/>
+      <c r="E21" s="52" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="92" t="s">
+      <c r="D22" s="67"/>
+      <c r="E22" s="66" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78" t="s">
+      <c r="A23" s="90"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="78" t="s">
+      <c r="D23" s="56"/>
+      <c r="E23" s="55" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="94"/>
-      <c r="C24" s="95" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="95" t="s">
+      <c r="D24" s="70"/>
+      <c r="E24" s="69" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="B25" s="69"/>
-      <c r="C25" s="67" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="67" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="47" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="98" t="s">
+      <c r="A26" s="90"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="72" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="84" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="67" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="67" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="47" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="85" t="s">
+      <c r="A28" s="85"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="62" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="88"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="111" t="s">
+      <c r="A29" s="86"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="80" t="s">
+      <c r="B30" s="49"/>
+      <c r="C30" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="D30" s="68"/>
-      <c r="E30" s="67" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="47" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="72"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="101" t="s">
+      <c r="A31" s="91"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="75" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="72"/>
-      <c r="B32" s="81"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="82" t="s">
+      <c r="A32" s="91"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="59" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="72"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="101" t="s">
+      <c r="A33" s="91"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="75" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="78" t="s">
+      <c r="A34" s="90"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="55" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="95" t="s">
+      <c r="B35" s="68"/>
+      <c r="C35" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D35" s="96"/>
-      <c r="E35" s="95" t="s">
+      <c r="D35" s="70"/>
+      <c r="E35" s="69" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="67" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="67" t="s">
+      <c r="D36" s="48"/>
+      <c r="E36" s="47" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="72"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="101" t="s">
+      <c r="A37" s="91"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="75" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="72"/>
-      <c r="B38" s="81"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="82" t="s">
+      <c r="A38" s="91"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="59" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="85" t="s">
+      <c r="A39" s="90"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="62" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="87" t="s">
+      <c r="A40" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="69"/>
-      <c r="C40" s="67" t="s">
+      <c r="B40" s="49"/>
+      <c r="C40" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="68"/>
-      <c r="E40" s="67" t="s">
+      <c r="D40" s="48"/>
+      <c r="E40" s="47" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="90"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="101" t="s">
+      <c r="A41" s="85"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="75" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="88"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="78" t="s">
+      <c r="A42" s="86"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="56"/>
+      <c r="E42" s="55" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="73" t="s">
+      <c r="A43" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="94"/>
-      <c r="C43" s="95" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="96"/>
-      <c r="E43" s="95" t="s">
+      <c r="D43" s="70"/>
+      <c r="E43" s="69" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="87" t="s">
+      <c r="A44" s="84" t="s">
         <v>96</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="67" t="s">
+      <c r="B44" s="49"/>
+      <c r="C44" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="68"/>
-      <c r="E44" s="67" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="47" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="90"/>
-      <c r="B45" s="100"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="101" t="s">
+      <c r="A45" s="85"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="75" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="90"/>
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="82" t="s">
+      <c r="A46" s="85"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="59" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="90"/>
-      <c r="B47" s="100"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="102"/>
-      <c r="E47" s="101" t="s">
+      <c r="A47" s="85"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="75"/>
+      <c r="D47" s="76"/>
+      <c r="E47" s="75" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="88"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="78" t="s">
+      <c r="A48" s="86"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="55" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="81" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="58"/>
-    </row>
-    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="103" t="s">
+      <c r="B49" s="82"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="82"/>
+      <c r="E49" s="83"/>
+    </row>
+    <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65" t="s">
+      <c r="B50" s="58"/>
+      <c r="C50" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="D50" s="66"/>
-      <c r="E50" s="65" t="s">
+      <c r="D50" s="60"/>
+      <c r="E50" s="59" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="103"/>
-      <c r="B51" s="64"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="65" t="s">
+    <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="75"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="76"/>
+      <c r="E51" s="75" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="103"/>
-      <c r="B52" s="64"/>
-      <c r="C52" s="65"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="65" t="s">
+    <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="59"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="59" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="103"/>
-      <c r="B53" s="64"/>
-      <c r="C53" s="65"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="65" t="s">
+    <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="75"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="75"/>
+      <c r="D53" s="76"/>
+      <c r="E53" s="75" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="59"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="65" t="s">
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="59" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="59"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="65" t="s">
+      <c r="A55" s="75"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="75" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="65" t="s">
+      <c r="A56" s="99"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="59" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="59"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="65" t="s">
+      <c r="A57" s="104"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="75" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="59"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="65" t="s">
+      <c r="A58" s="99"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="59" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="59"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="65" t="s">
+      <c r="A59" s="104"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="75" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="59"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="65" t="s">
+      <c r="A60" s="99"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="59" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="59"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="65" t="s">
+      <c r="A61" s="104"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="76"/>
+      <c r="E61" s="75" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="59"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="65" t="s">
+      <c r="A62" s="99"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="60"/>
+      <c r="E62" s="59" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="59"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="65" t="s">
+      <c r="A63" s="104"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="75" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="59"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="65" t="s">
+      <c r="A64" s="99"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="59" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="104"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="107"/>
-      <c r="E65" s="106" t="s">
+      <c r="A65" s="105"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="107" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="104"/>
-      <c r="B66" s="105"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="106" t="s">
+      <c r="A66" s="100"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="102"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="102" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="104"/>
-      <c r="B67" s="105"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="106" t="s">
+      <c r="A67" s="105"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="107" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="104"/>
-      <c r="B68" s="105"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="106" t="s">
+      <c r="A68" s="100"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="102"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="102" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="104"/>
-      <c r="B69" s="105"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="107"/>
-      <c r="E69" s="106" t="s">
+      <c r="A69" s="105"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="107"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="107" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="104"/>
-      <c r="B70" s="105"/>
-      <c r="C70" s="106"/>
-      <c r="D70" s="107"/>
-      <c r="E70" s="106" t="s">
+      <c r="A70" s="100"/>
+      <c r="B70" s="101"/>
+      <c r="C70" s="102"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="102" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="104"/>
-      <c r="B71" s="105"/>
-      <c r="C71" s="106"/>
-      <c r="D71" s="107"/>
-      <c r="E71" s="106" t="s">
+      <c r="A71" s="105"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="108"/>
+      <c r="E71" s="107" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="104"/>
-      <c r="B72" s="105"/>
-      <c r="C72" s="106"/>
-      <c r="D72" s="107"/>
-      <c r="E72" s="106" t="s">
+      <c r="A72" s="100"/>
+      <c r="B72" s="101"/>
+      <c r="C72" s="102"/>
+      <c r="D72" s="103"/>
+      <c r="E72" s="102" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="104"/>
-      <c r="B73" s="105"/>
-      <c r="C73" s="106"/>
-      <c r="D73" s="107"/>
-      <c r="E73" s="106" t="s">
+      <c r="A73" s="105"/>
+      <c r="B73" s="106"/>
+      <c r="C73" s="107"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="107" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="104"/>
-      <c r="B74" s="105"/>
-      <c r="C74" s="106"/>
-      <c r="D74" s="107"/>
-      <c r="E74" s="106" t="s">
+      <c r="A74" s="100"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="103"/>
+      <c r="E74" s="102" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="104"/>
-      <c r="B75" s="105"/>
-      <c r="C75" s="106"/>
-      <c r="D75" s="107"/>
-      <c r="E75" s="106" t="s">
+      <c r="A75" s="105"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="107"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="107" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="104"/>
-      <c r="B76" s="105"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="107"/>
-      <c r="E76" s="106" t="s">
+      <c r="A76" s="100"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="102" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="60"/>
+      <c r="A77" s="109"/>
       <c r="B77" s="61"/>
       <c r="C77" s="62"/>
       <c r="D77" s="63"/>
@@ -3324,6 +3327,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A49:E49"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="B1:C1"/>
@@ -3340,10 +3347,6 @@
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A44:A48"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3421,14 +3424,14 @@
       <c r="AE1" s="4"/>
     </row>
     <row r="2" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="32"/>
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
@@ -3456,12 +3459,12 @@
       <c r="AE2" s="4"/>
     </row>
     <row r="3" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
       <c r="G3" s="32"/>
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
@@ -3489,12 +3492,12 @@
       <c r="AE3" s="4"/>
     </row>
     <row r="4" spans="1:45" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
       <c r="G4" s="32"/>
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
@@ -3522,14 +3525,14 @@
       <c r="AE4" s="4"/>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98"/>
       <c r="G5" s="33"/>
       <c r="H5" s="33"/>
       <c r="I5" s="33"/>
@@ -3583,34 +3586,34 @@
     </row>
     <row r="7" spans="1:45" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:45" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="46" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46" t="s">
+      <c r="I8" s="93"/>
+      <c r="J8" s="93"/>
+      <c r="K8" s="93"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="N8" s="46"/>
-      <c r="O8" s="46"/>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46" t="s">
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="93"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
     </row>
     <row r="9" spans="1:45" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
@@ -6179,6 +6182,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9EE5A02A2A6DC45B45E782DFEFDA45E" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7657f0a98c495c38e0a3edb0de0bfed3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c79c8594d4fa4c9fd200c91a62336472" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
@@ -6304,15 +6316,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -6322,6 +6325,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1910A495-F8F1-4320-96F7-0EE9F01D3CE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6340,14 +6351,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA349A94-BB86-4E02-9DFC-BCF7626CFB19}">
   <ds:schemaRefs>

--- a/Trabajos Prácticos/TP_12/Recursos/DeliverEat_Template_Caso_De_Prueba_Defectos.xlsx
+++ b/Trabajos Prácticos/TP_12/Recursos/DeliverEat_Template_Caso_De_Prueba_Defectos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\Trabajos Prácticos\TP_12\Recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Gonza\Documents\2022\ISW\Repositorio\Repositorio_Grupo2_ISW\Trabajos Prácticos\TP_12\Recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E1577D-E0A2-41FB-BB2F-D9F07CABBE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B325B0DC-F24B-43A0-8C7F-3B5DC24A39F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="-120" windowWidth="28320" windowHeight="16440" tabRatio="679" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clases de Equivalencia" sheetId="29" r:id="rId1"/>
@@ -495,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -989,17 +989,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1017,7 +1006,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1174,8 +1163,32 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1183,41 +1196,23 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1668,11 +1663,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD9840-36E0-4F21-9FAD-A2DDF0698138}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" customWidth="1"/>
@@ -1685,26 +1680,26 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="55"/>
+      <c r="D1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="63"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="66"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="16"/>
@@ -1717,7 +1712,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="28"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
@@ -1726,7 +1721,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="16"/>
@@ -1739,7 +1734,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="28"/>
       <c r="C6" s="29" t="s">
         <v>39</v>
@@ -1750,7 +1745,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="16"/>
@@ -1763,7 +1758,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="28"/>
       <c r="C8" s="29" t="s">
         <v>41</v>
@@ -1774,7 +1769,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="58" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="16"/>
@@ -1787,7 +1782,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="28"/>
       <c r="C10" s="29" t="s">
         <v>41</v>
@@ -1798,7 +1793,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="56" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="16"/>
@@ -1809,7 +1804,7 @@
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="28"/>
       <c r="C12" s="29" t="s">
         <v>31</v>
@@ -1818,7 +1813,7 @@
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="58" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="16"/>
@@ -1832,7 +1827,7 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="28"/>
       <c r="C14" s="29" t="s">
         <v>38</v>
@@ -1841,7 +1836,7 @@
       <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="56" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="16"/>
@@ -1854,7 +1849,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="28"/>
       <c r="C16" s="29"/>
       <c r="D16" s="30"/>
@@ -1863,7 +1858,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="58" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="16"/>
@@ -1876,7 +1871,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="30"/>
@@ -1885,7 +1880,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="56" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="16"/>
@@ -1896,7 +1891,7 @@
       <c r="E19" s="14"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="28"/>
       <c r="C20" s="29" t="s">
         <v>31</v>
@@ -1918,7 +1913,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="32"/>
@@ -1931,7 +1926,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="21"/>
       <c r="C23" s="22" t="s">
         <v>45</v>
@@ -1955,7 +1950,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58" t="s">
+      <c r="A25" s="56" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="16"/>
@@ -1968,7 +1963,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
+      <c r="A26" s="57"/>
       <c r="B26" s="38"/>
       <c r="C26" s="39"/>
       <c r="D26" s="40"/>
@@ -1977,7 +1972,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="16"/>
@@ -1990,7 +1985,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
+      <c r="A28" s="65"/>
       <c r="B28" s="28"/>
       <c r="C28" s="29"/>
       <c r="D28" s="30"/>
@@ -1999,7 +1994,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="44"/>
       <c r="C29" s="45"/>
       <c r="D29" s="46"/>
@@ -2008,7 +2003,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="56" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="16"/>
@@ -2021,7 +2016,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="41"/>
       <c r="C31" s="42"/>
       <c r="D31" s="43"/>
@@ -2030,7 +2025,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="68"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="27"/>
@@ -2039,7 +2034,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="41"/>
       <c r="C33" s="42"/>
       <c r="D33" s="43"/>
@@ -2048,7 +2043,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
       <c r="D34" s="23"/>
@@ -2070,7 +2065,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="56" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="16"/>
@@ -2083,7 +2078,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="41"/>
       <c r="C37" s="42"/>
       <c r="D37" s="43"/>
@@ -2092,7 +2087,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="27"/>
@@ -2101,7 +2096,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="28"/>
       <c r="C39" s="29"/>
       <c r="D39" s="30"/>
@@ -2110,7 +2105,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="58" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="16"/>
@@ -2123,7 +2118,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
+      <c r="A41" s="65"/>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
       <c r="D41" s="43"/>
@@ -2132,7 +2127,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="61"/>
+      <c r="A42" s="59"/>
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
       <c r="D42" s="23"/>
@@ -2154,7 +2149,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="60" t="s">
+      <c r="A44" s="58" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="16"/>
@@ -2167,7 +2162,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="67"/>
+      <c r="A45" s="65"/>
       <c r="B45" s="41"/>
       <c r="C45" s="42"/>
       <c r="D45" s="43"/>
@@ -2176,7 +2171,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="67"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="27"/>
@@ -2185,7 +2180,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="67"/>
+      <c r="A47" s="65"/>
       <c r="B47" s="41"/>
       <c r="C47" s="42"/>
       <c r="D47" s="43"/>
@@ -2194,7 +2189,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="61"/>
+      <c r="A48" s="59"/>
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
       <c r="D48" s="23"/>
@@ -2203,16 +2198,16 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="62"/>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="63" t="s">
         <v>67</v>
       </c>
       <c r="B50" s="25"/>
@@ -2225,7 +2220,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="56"/>
+      <c r="A51" s="64"/>
       <c r="B51" s="41"/>
       <c r="C51" s="42"/>
       <c r="D51" s="43"/>
@@ -2234,7 +2229,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="56"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="27"/>
@@ -2243,7 +2238,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="56"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="41"/>
       <c r="C53" s="42"/>
       <c r="D53" s="43"/>
@@ -2252,7 +2247,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="56"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="27"/>
@@ -2261,7 +2256,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="56"/>
+      <c r="A55" s="64"/>
       <c r="B55" s="41"/>
       <c r="C55" s="42"/>
       <c r="D55" s="43"/>
@@ -2270,7 +2265,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="56"/>
+      <c r="A56" s="64"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="27"/>
@@ -2279,7 +2274,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="56"/>
+      <c r="A57" s="64"/>
       <c r="B57" s="41"/>
       <c r="C57" s="42"/>
       <c r="D57" s="43"/>
@@ -2288,7 +2283,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="56"/>
+      <c r="A58" s="64"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="27"/>
@@ -2297,7 +2292,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="56"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="41"/>
       <c r="C59" s="42"/>
       <c r="D59" s="43"/>
@@ -2306,7 +2301,7 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="56"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="27"/>
@@ -2315,7 +2310,7 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="56"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="41"/>
       <c r="C61" s="42"/>
       <c r="D61" s="43"/>
@@ -2324,7 +2319,7 @@
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="56"/>
+      <c r="A62" s="64"/>
       <c r="B62" s="41"/>
       <c r="C62" s="42"/>
       <c r="D62" s="43"/>
@@ -2333,7 +2328,7 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="56"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="27"/>
@@ -2342,7 +2337,7 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="56"/>
+      <c r="A64" s="64"/>
       <c r="B64" s="41"/>
       <c r="C64" s="42"/>
       <c r="D64" s="43"/>
@@ -2351,7 +2346,7 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="56"/>
+      <c r="A65" s="64"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="27"/>
@@ -2360,7 +2355,7 @@
       </c>
     </row>
     <row r="66" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="56"/>
+      <c r="A66" s="64"/>
       <c r="B66" s="51"/>
       <c r="C66" s="52"/>
       <c r="D66" s="53"/>
@@ -2369,7 +2364,7 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="56"/>
+      <c r="A67" s="64"/>
       <c r="B67" s="48"/>
       <c r="C67" s="49"/>
       <c r="D67" s="50"/>
@@ -2378,7 +2373,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="56"/>
+      <c r="A68" s="64"/>
       <c r="B68" s="51"/>
       <c r="C68" s="52"/>
       <c r="D68" s="53"/>
@@ -2387,7 +2382,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="56"/>
+      <c r="A69" s="64"/>
       <c r="B69" s="48"/>
       <c r="C69" s="49"/>
       <c r="D69" s="50"/>
@@ -2396,7 +2391,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="56"/>
+      <c r="A70" s="64"/>
       <c r="B70" s="51"/>
       <c r="C70" s="52"/>
       <c r="D70" s="53"/>
@@ -2405,7 +2400,7 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="56"/>
+      <c r="A71" s="64"/>
       <c r="B71" s="48"/>
       <c r="C71" s="49"/>
       <c r="D71" s="50"/>
@@ -2414,7 +2409,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="56"/>
+      <c r="A72" s="64"/>
       <c r="B72" s="51"/>
       <c r="C72" s="52"/>
       <c r="D72" s="53"/>
@@ -2423,7 +2418,7 @@
       </c>
     </row>
     <row r="73" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="56"/>
+      <c r="A73" s="64"/>
       <c r="B73" s="48"/>
       <c r="C73" s="49"/>
       <c r="D73" s="50"/>
@@ -2432,7 +2427,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="56"/>
+      <c r="A74" s="64"/>
       <c r="B74" s="51"/>
       <c r="C74" s="52"/>
       <c r="D74" s="53"/>
@@ -2441,7 +2436,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="56"/>
+      <c r="A75" s="64"/>
       <c r="B75" s="48"/>
       <c r="C75" s="49"/>
       <c r="D75" s="50"/>
@@ -2450,7 +2445,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="56"/>
+      <c r="A76" s="64"/>
       <c r="B76" s="51"/>
       <c r="C76" s="52"/>
       <c r="D76" s="53"/>
@@ -2459,7 +2454,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="56"/>
+      <c r="A77" s="64"/>
       <c r="B77" s="48"/>
       <c r="C77" s="49"/>
       <c r="D77" s="50"/>
@@ -2468,32 +2463,29 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="29" t="s">
+      <c r="A78" s="64"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="52" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C79" t="s">
+      <c r="B79" s="68"/>
+      <c r="C79" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="E79" s="54" t="s">
+      <c r="D79" s="70"/>
+      <c r="E79" s="19" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A50:A78"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
@@ -2510,6 +2502,11 @@
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2523,7 +2520,7 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="44.42578125" customWidth="1"/>
     <col min="5" max="5" width="43.140625" customWidth="1"/>
@@ -2783,15 +2780,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A9EE5A02A2A6DC45B45E782DFEFDA45E" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7657f0a98c495c38e0a3edb0de0bfed3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="http://schemas.microsoft.com/sharepoint/v4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c79c8594d4fa4c9fd200c91a62336472" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v4"/>
@@ -2917,6 +2905,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA349A94-BB86-4E02-9DFC-BCF7626CFB19}">
   <ds:schemaRefs>
@@ -2930,14 +2927,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1910A495-F8F1-4320-96F7-0EE9F01D3CE9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2954,4 +2943,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44F5ECF4-AC36-4424-9554-2A768AEC1238}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>